--- a/biology/Médecine/Santé_en_République_centrafricaine/Santé_en_République_centrafricaine.xlsx
+++ b/biology/Médecine/Santé_en_République_centrafricaine/Santé_en_République_centrafricaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+          <t>Santé_en_République_centrafricaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La santé en République centrafricaine constitue pour le Gouvernement, une question primordiale et fondamentale pour le développement du pays[1]. Le risque sanitaire important est encore accru en période de crise, les conflits qui déchirent le pays, depuis décembre 2012, ont provoqué l’effondrement du système de santé dans toutes ses composantes[2]. La population centrafricaine souffre beaucoup des conséquences d'une crise humanitaire prolongée due à la guerre et aux déplacements. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La santé en République centrafricaine constitue pour le Gouvernement, une question primordiale et fondamentale pour le développement du pays. Le risque sanitaire important est encore accru en période de crise, les conflits qui déchirent le pays, depuis décembre 2012, ont provoqué l’effondrement du système de santé dans toutes ses composantes. La population centrafricaine souffre beaucoup des conséquences d'une crise humanitaire prolongée due à la guerre et aux déplacements. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+          <t>Santé_en_République_centrafricaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espérance de vie
-En 2015, l’espérance de vie à la naissance pour les deux sexes est de 52,5 ans, pour les femmes : 54 ans, pour les hommes 51 ans. Ainsi, il est l’un des 8 pays du monde dont l’espérance de vie à la naissance est inférieure à 55 ans.
-Taux de mortalité maternelle
-En 2015, le taux de mortalité maternelle est de 882 pour 100 000 naissances vivantes.
-Ce qui constitue le plus fort taux au monde après le Sierra Leone.
-Ce taux était de 1 355 en 2003 et 688 en 1988.
-Mortalité infanto-juvénile
-Le taux de mortalité des enfants de moins de cinq ans est de 130,1 pour 1 000 naissances. Ce qui constitue le 4e plus fort taux au monde après l’Angola, le Tchad et la Somalie. 
-Suicide
-Le taux de suicide pour 100 000 personnes est de 7,9 en 2012. Ce qui correspond à la moitié du taux de la France 15,8. Il est aussi moins élevé qu’au Canada 11,4.
-Professionnels de santé qualifiés
-Le taux de professionnel de santé est de 3,1 pour 10 000 habitants pour la période 2005-2009.
+          <t>Espérance de vie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, l’espérance de vie à la naissance pour les deux sexes est de 52,5 ans, pour les femmes : 54 ans, pour les hommes 51 ans. Ainsi, il est l’un des 8 pays du monde dont l’espérance de vie à la naissance est inférieure à 55 ans.
 </t>
         </is>
       </c>
@@ -535,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+          <t>Santé_en_République_centrafricaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maladies infectieuses</t>
+          <t>Indicateurs de santé</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paludisme
-Le paludisme endémique dans les zones intertropicales, est le principal problème de santé du pays, il est responsable de la moitié des décès à l'hôpital en 2009[3]. Le taux de prévalence du paludisme est de 325 pour 1 000 personnes à risque en 2013.
+          <t>Taux de mortalité maternelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, le taux de mortalité maternelle est de 882 pour 100 000 naissances vivantes.
+Ce qui constitue le plus fort taux au monde après le Sierra Leone.
+Ce taux était de 1 355 en 2003 et 688 en 1988.
 </t>
         </is>
       </c>
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+          <t>Santé_en_République_centrafricaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +596,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Indicateurs de santé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mortalité infanto-juvénile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de mortalité des enfants de moins de cinq ans est de 130,1 pour 1 000 naissances. Ce qui constitue le 4e plus fort taux au monde après l’Angola, le Tchad et la Somalie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_en_République_centrafricaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Indicateurs de santé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suicide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de suicide pour 100 000 personnes est de 7,9 en 2012. Ce qui correspond à la moitié du taux de la France 15,8. Il est aussi moins élevé qu’au Canada 11,4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_en_République_centrafricaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Indicateurs de santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Professionnels de santé qualifiés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de professionnel de santé est de 3,1 pour 10 000 habitants pour la période 2005-2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_en_République_centrafricaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Maladies infectieuses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Paludisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le paludisme endémique dans les zones intertropicales, est le principal problème de santé du pays, il est responsable de la moitié des décès à l'hôpital en 2009. Le taux de prévalence du paludisme est de 325 pour 1 000 personnes à risque en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santé_en_République_centrafricaine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_R%C3%A9publique_centrafricaine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>OMS, World Health Stastitics 2016 (en)</t>
         </is>
